--- a/biology/Botanique/Hippocrepis_emerus/Hippocrepis_emerus.xlsx
+++ b/biology/Botanique/Hippocrepis_emerus/Hippocrepis_emerus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippocrepis emerus
 La coronille des jardins ou coronille arbrisseau (Hippocrepis emerus syn. Coronilla emerus) est un arbuste de la famille des Fabacées.
@@ -513,13 +525,50 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste plutôt arbrisseau de 50 cm à 1,8 m de haut, qui pousse à l'état sauvage en Europe. Les fleurs sont jaunes, groupées par 2 à 5.
 Les jeunes rameaux sont glabres, anguleux et durs, avec des côtes longitudinales, point crucial qui le différencie du Baguenaudier (Colutea arborescens) qui lui a ses jeunes rameaux arrondis et pubescents.
 Les feuilles sont composées de 5 à 9 folioles de forme ovale. La base de celles-ci sont en coin à l’inverse du Baguenaudier dont les folioles sont arrondies.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hippocrepis_emerus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hippocrepis_emerus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
 Période de floraison : mai-octobre
 Inflorescence : ombelle simple
